--- a/biology/Histoire de la zoologie et de la botanique/Finn_Salomonsen/Finn_Salomonsen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Finn_Salomonsen/Finn_Salomonsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Finn Salomonsen, né le 31 janvier 1909 à Copenhague et mort le 27 avril 1983, est un ornithologue danois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de zoologie en 1932, il est zoologiste assistant pour les Réserves naturelles danoises de 1936 à 1943. Il obtient en 1939 son titre de docteur et fait de très nombreux voyages au Groenland, le dernier, trois ans avant sa mort. Il y étudie l’avifaune du Groenland. Il explore les Philippines en 1951-1952 et participe à une expédition en 1962 dans l’archipel Bismarck.
 Il est l’éditeur de la revue Dansk Ornithologisk Forenings Tidsskrift de 1942 à 1961. À partir de 1943, il est assistant au département d’ornithologie du musée de zoologie de l'université de Copenhague, en 1952 conservateur, en 1958 conservateur en chef jusqu’à son départ à la retraite en 1978.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1950-1951 : The Birds of Greenland (deux volumes).
 1958 : avec Peter Freuchen (1886-1957) The Arctic Year.</t>
